--- a/Nucleo-F446RE 単精度浮動小数点数演算.xlsx
+++ b/Nucleo-F446RE 単精度浮動小数点数演算.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_F446_FloatingPoint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Nucleo-F446RE 単精度浮動小数点数演算</t>
     <rPh sb="14" eb="23">
@@ -138,6 +139,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2019.07.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mbed Studio 0.5.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mbed Studio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -182,11 +199,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -289,7 +309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11</c:f>
+              <c:f>'Sheet1 (3)'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -310,7 +330,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$12:$A$16</c:f>
+              <c:f>'Sheet1 (3)'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -333,7 +353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$12:$B$16</c:f>
+              <c:f>'Sheet1 (3)'!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -361,11 +381,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$11</c:f>
+              <c:f>'Sheet1 (3)'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SW4STM32</c:v>
+                  <c:v>Mbed Studio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,7 +402,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$12:$A$16</c:f>
+              <c:f>'Sheet1 (3)'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -405,24 +425,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$12:$C$16</c:f>
+              <c:f>'Sheet1 (3)'!$C$10:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>49.6</c:v>
+                  <c:v>55.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>94.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>94.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>94.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,11 +458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="392487344"/>
-        <c:axId val="392479728"/>
+        <c:axId val="-691718944"/>
+        <c:axId val="-691717312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="392487344"/>
+        <c:axId val="-691718944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +505,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392479728"/>
+        <c:crossAx val="-691717312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -493,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392479728"/>
+        <c:axId val="-691717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +564,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392487344"/>
+        <c:crossAx val="-691718944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$11</c:f>
+              <c:f>'Sheet1 (3)'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +749,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$17:$A$22</c:f>
+              <c:f>'Sheet1 (3)'!$A$15:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -755,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$17:$B$22</c:f>
+              <c:f>'Sheet1 (3)'!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -786,11 +806,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$11</c:f>
+              <c:f>'Sheet1 (3)'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SW4STM32</c:v>
+                  <c:v>Mbed Studio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -807,7 +827,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$A$17:$A$22</c:f>
+              <c:f>'Sheet1 (3)'!$A$15:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -833,27 +853,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$17:$C$22</c:f>
+              <c:f>'Sheet1 (3)'!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>525</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>591</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>966</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>974</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>998</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2735</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,11 +889,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="401871856"/>
-        <c:axId val="401874032"/>
+        <c:axId val="-691720032"/>
+        <c:axId val="-691719488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401871856"/>
+        <c:axId val="-691720032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +936,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401874032"/>
+        <c:crossAx val="-691719488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401874032"/>
+        <c:axId val="-691719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +995,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401871856"/>
+        <c:crossAx val="-691720032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,7 +1117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1139,11 +1158,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>'Sheet1 (2)'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TrueSTUDIO</c:v>
+                  <c:v>mbed-cli</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1160,7 +1179,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:f>'Sheet1 (2)'!$A$12:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1183,24 +1202,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>'Sheet1 (2)'!$B$12:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.15</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.6</c:v>
+                  <c:v>77.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1230,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$11</c:f>
+              <c:f>'Sheet1 (2)'!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1232,7 +1251,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:f>'Sheet1 (2)'!$A$12:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1255,96 +1274,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:f>'Sheet1 (2)'!$C$12:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.15</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.6</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.4</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.6</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mbed-cli</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$12:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>no-op</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>add</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sub</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mul</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>div</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$12:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.1080000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,11 +1307,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="295837488"/>
-        <c:axId val="295831504"/>
+        <c:axId val="-691724928"/>
+        <c:axId val="-691724384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="295837488"/>
+        <c:axId val="-691724928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1354,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295831504"/>
+        <c:crossAx val="-691724384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295831504"/>
+        <c:axId val="-691724384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1413,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295837488"/>
+        <c:crossAx val="-691724928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,7 +1427,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1588,7 +1534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1630,11 +1575,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11</c:f>
+              <c:f>'Sheet1 (2)'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TrueSTUDIO</c:v>
+                  <c:v>mbed-cli</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1651,7 +1596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$17:$A$22</c:f>
+              <c:f>'Sheet1 (2)'!$A$17:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1677,27 +1622,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$22</c:f>
+              <c:f>'Sheet1 (2)'!$B$17:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>547</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1050</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>990</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>934</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4090</c:v>
+                  <c:v>2625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1653,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$11</c:f>
+              <c:f>'Sheet1 (2)'!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,7 +1674,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$17:$A$22</c:f>
+              <c:f>'Sheet1 (2)'!$A$17:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1755,105 +1700,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$C$22</c:f>
+              <c:f>'Sheet1 (2)'!$C$17:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>515</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>581</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1002</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1122</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>982</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mbed-cli</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$17:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>sinf()</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cosf()</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>tanf()</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>expf()</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>logf()</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>powf()</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$17:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2585</c:v>
+                  <c:v>2735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,11 +1736,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="295841840"/>
-        <c:axId val="295835856"/>
+        <c:axId val="-691712960"/>
+        <c:axId val="-691723840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="295841840"/>
+        <c:axId val="-691712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1783,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295835856"/>
+        <c:crossAx val="-691723840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295835856"/>
+        <c:axId val="-691723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1842,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295841840"/>
+        <c:crossAx val="-691712960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1989,7 +1856,1002 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>四則演算</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrueSTUDIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>no-op</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sub</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>div</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SW4STM32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>no-op</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sub</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>div</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mbed-cli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>no-op</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>add</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sub</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>div</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1080000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-691714592"/>
+        <c:axId val="-691722752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-691714592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-691722752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-691722752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-691714592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>よく使う関数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrueSTUDIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sinf()</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cosf()</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tanf()</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>expf()</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>logf()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>powf()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4090</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SW4STM32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sinf()</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cosf()</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tanf()</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>expf()</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>logf()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>powf()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mbed-cli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sinf()</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cosf()</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tanf()</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>expf()</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>logf()</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>powf()</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-691720576"/>
+        <c:axId val="-691715680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-691720576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-691715680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-691715680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-691720576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2216,6 +3078,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4228,7 +5170,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>852487</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4293,7 +6310,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4621,10 +6638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E22"/>
+      <selection activeCell="A9" sqref="A9:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4642,251 +6659,244 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>19</v>
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>55.9</v>
+      </c>
+      <c r="D10">
+        <f>C10-B10</f>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>77.8</v>
+      </c>
+      <c r="C11">
+        <v>94.75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D20" si="0">C11-B11</f>
+        <v>16.950000000000003</v>
+      </c>
+      <c r="E11">
+        <f>D11-$D$10</f>
+        <v>5.0000000000004263E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>77.8</v>
       </c>
       <c r="C12">
-        <v>49.6</v>
+        <v>94.625</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
-        <v>10.600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>16.825000000000003</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E20" si="1">D12-$D$10</f>
+        <v>-7.4999999999995737E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>77.8</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>94.75</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D22" si="0">C13-B13</f>
-        <v>21.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>16.950000000000003</v>
       </c>
       <c r="E13">
-        <f>D13-$D$12</f>
-        <v>10.600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000004263E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77.8</v>
+        <v>145</v>
       </c>
       <c r="C14">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>21.200000000000003</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E22" si="1">D14-$D$12</f>
-        <v>10.600000000000001</v>
+        <f t="shared" si="1"/>
+        <v>5.1000000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77.8</v>
+        <v>569</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>448</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>21.200000000000003</v>
+        <v>-121</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>10.600000000000001</v>
+        <v>-137.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>145</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>621</v>
       </c>
       <c r="C16">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-206</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>9.3999999999999986</v>
+        <v>-222.9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>569</v>
+        <v>986</v>
       </c>
       <c r="C17">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-431</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>-54.6</v>
+        <v>-447.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1">
-        <v>621</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>958</v>
       </c>
       <c r="C18">
-        <v>591</v>
+        <v>645</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-313</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>-40.6</v>
+        <v>-329.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>986</v>
+        <v>946</v>
       </c>
       <c r="C19">
-        <v>966</v>
+        <v>573</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-373</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>-30.6</v>
+        <v>-389.9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>958</v>
+        <v>2625</v>
       </c>
       <c r="C20">
-        <v>974</v>
+        <v>2010</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-615</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>5.3999999999999986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>946</v>
-      </c>
-      <c r="C21">
-        <v>998</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>2625</v>
-      </c>
-      <c r="C22">
-        <v>2735</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>99.4</v>
+        <v>-631.9</v>
       </c>
     </row>
   </sheetData>
@@ -4898,6 +6908,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>49.6</v>
+      </c>
+      <c r="D12">
+        <f>C12-B12</f>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>77.8</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D22" si="0">C13-B13</f>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="E13">
+        <f>D13-$D$12</f>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>77.8</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E22" si="1">D14-$D$12</f>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>77.8</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>165</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>569</v>
+      </c>
+      <c r="C17">
+        <v>525</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-54.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>621</v>
+      </c>
+      <c r="C18">
+        <v>591</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-40.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>986</v>
+      </c>
+      <c r="C19">
+        <v>966</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-30.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>958</v>
+      </c>
+      <c r="C20">
+        <v>974</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>946</v>
+      </c>
+      <c r="C21">
+        <v>998</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>2625</v>
+      </c>
+      <c r="C22">
+        <v>2735</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>99.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
